--- a/output/raw_data/stock_metrics.xlsx
+++ b/output/raw_data/stock_metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Index</t>
   </si>
@@ -85,10 +85,16 @@
     <t>Hang Seng</t>
   </si>
   <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>2020-08-31 to 2025-08-29</t>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-12 to 2025-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-12 to 2025-10-09</t>
   </si>
 </sst>
 </file>
@@ -522,58 +528,58 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>6460.2598</v>
+        <v>6552.5098</v>
       </c>
       <c r="D2">
-        <v>2531991994</v>
+        <v>3530624627</v>
       </c>
       <c r="E2">
-        <v>1.530118366312811</v>
+        <v>0.3133753008248549</v>
       </c>
       <c r="F2">
-        <v>15.52764683581427</v>
+        <v>13.36424471636905</v>
       </c>
       <c r="G2">
-        <v>4640.386353105096</v>
+        <v>4715.135190286624</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>0.114762657382138</v>
+        <v>0.1126857923870899</v>
       </c>
       <c r="J2">
-        <v>0.2356752270006161</v>
+        <v>0.1293199740896403</v>
       </c>
       <c r="K2">
-        <v>0.1900729631071783</v>
+        <v>0.1882805582365789</v>
       </c>
       <c r="L2">
-        <v>0.1738316423050164</v>
+        <v>0.1710708349642641</v>
       </c>
       <c r="M2">
-        <v>0.1590140900510498</v>
+        <v>0.07307440732633236</v>
       </c>
       <c r="N2">
-        <v>0.224548676290155</v>
+        <v>0.4806466392990709</v>
       </c>
       <c r="O2">
-        <v>0.1553906878656681</v>
+        <v>0.1337398482022922</v>
       </c>
       <c r="P2">
-        <v>0.130561918880489</v>
+        <v>0.1315896494765625</v>
       </c>
       <c r="Q2">
-        <v>0.9934772569042591</v>
+        <v>0.2491388375731807</v>
       </c>
       <c r="R2">
-        <v>0.761847897953592</v>
+        <v>3.368749818934353</v>
       </c>
       <c r="S2">
-        <v>0.580780591100803</v>
+        <v>0.47131710800851</v>
       </c>
       <c r="T2">
-        <v>0.4922114164368097</v>
+        <v>0.5061625466120551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,58 +590,58 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>4496.759</v>
+        <v>4616.834</v>
       </c>
       <c r="D3">
-        <v>35193894700</v>
+        <v>31902089900</v>
       </c>
       <c r="E3">
-        <v>8.323324270976507</v>
+        <v>3.85725356635507</v>
       </c>
       <c r="F3">
-        <v>37.19330831767948</v>
+        <v>15.48471304631461</v>
       </c>
       <c r="G3">
-        <v>4179.566977741138</v>
+        <v>4176.678742786479</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>0.1527287912312954</v>
+        <v>0.1670403208896257</v>
       </c>
       <c r="J3">
-        <v>0.1495286683437472</v>
+        <v>0.1209994747888829</v>
       </c>
       <c r="K3">
-        <v>0.2197163343995549</v>
+        <v>0.168142972135932</v>
       </c>
       <c r="L3">
-        <v>0.1812571073199895</v>
+        <v>0.1812300925892414</v>
       </c>
       <c r="M3">
-        <v>0.88655024071642</v>
+        <v>0.6052351361576112</v>
       </c>
       <c r="N3">
-        <v>0.3452325874500426</v>
+        <v>0.5209892858460405</v>
       </c>
       <c r="O3">
-        <v>0.3722302617388358</v>
+        <v>0.1549610134815955</v>
       </c>
       <c r="P3">
-        <v>-0.01364921216711812</v>
+        <v>-0.008716517358257403</v>
       </c>
       <c r="Q3">
-        <v>5.69342711158865</v>
+        <v>3.521515841353633</v>
       </c>
       <c r="R3">
-        <v>2.195114763514632</v>
+        <v>4.165218788969038</v>
       </c>
       <c r="S3">
-        <v>1.616767650478131</v>
+        <v>0.8204982446133019</v>
       </c>
       <c r="T3">
-        <v>-0.1690924710224483</v>
+        <v>-0.1418998191241008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>25077.619</v>
+        <v>26752.59</v>
       </c>
       <c r="D4">
-        <v>27445134839</v>
+        <v>25482835987</v>
       </c>
       <c r="E4">
-        <v>-0.3944523816049118</v>
+        <v>3.140014455167523</v>
       </c>
       <c r="F4">
-        <v>40.99385932559404</v>
+        <v>29.63259621926187</v>
       </c>
       <c r="G4">
-        <v>21689.46979820993</v>
+        <v>21732.45348208469</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>0.1675672705875473</v>
+        <v>0.1620576708010363</v>
       </c>
       <c r="J4">
-        <v>0.2688518628282165</v>
+        <v>0.1709319108986805</v>
       </c>
       <c r="K4">
-        <v>0.2827006938515262</v>
+        <v>0.2481326555173181</v>
       </c>
       <c r="L4">
-        <v>0.2517209530254332</v>
+        <v>0.2521595493859867</v>
       </c>
       <c r="M4">
-        <v>-0.1800548017114663</v>
+        <v>0.5255670853532712</v>
       </c>
       <c r="N4">
-        <v>0.1923303624662847</v>
+        <v>0.5784036198243703</v>
       </c>
       <c r="O4">
-        <v>0.4102703987162608</v>
+        <v>0.2965564215567051</v>
       </c>
       <c r="P4">
-        <v>-0.0007920883867171824</v>
+        <v>0.01653792696318224</v>
       </c>
       <c r="Q4">
-        <v>-1.111522560810319</v>
+        <v>3.204828767352308</v>
       </c>
       <c r="R4">
-        <v>0.6923156883060655</v>
+        <v>3.3475529338904</v>
       </c>
       <c r="S4">
-        <v>1.429322274421009</v>
+        <v>1.170166099062443</v>
       </c>
       <c r="T4">
-        <v>-0.02777714092799705</v>
+        <v>0.04099756280638701</v>
       </c>
     </row>
   </sheetData>
